--- a/contoha2e1.xlsx
+++ b/contoha2e1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myarticle\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E4666E-C9A8-4950-96F1-04676486395C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daftar KDP" sheetId="2" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'daftar KDP'!$A$6:$M$894</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'daftar KDP'!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2087,7 +2093,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -2665,9 +2671,9 @@
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Comma [0] 3" xfId="4"/>
+    <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2793,7 +2799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2825,9 +2831,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2859,6 +2883,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3034,15 +3076,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:M3"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21665,7 +21707,7 @@
       <c r="M894" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M894">
+  <autoFilter ref="A6:M894" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
   </autoFilter>
